--- a/Критерии.xlsx
+++ b/Критерии.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stasl\OneDrive\Desktop\vending-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E12954A-3180-4D9C-B18B-D76C61F45201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC9326B-ACAD-4D8C-80A9-9DB11B3151D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Критерии оценки" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1556,7 +1559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1899,6 +1902,12 @@
     <xf numFmtId="2" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1915,12 +1924,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2153,8 +2157,8 @@
   </sheetPr>
   <dimension ref="A1:W865"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2234,12 +2238,12 @@
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
       <c r="F6" s="29">
         <f>SUM(F7:F54)</f>
         <v>36.200000000000053</v>
@@ -2886,12 +2890,12 @@
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="121"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="29"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -2937,6 +2941,9 @@
       <c r="F57" s="36">
         <v>1</v>
       </c>
+      <c r="G57" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
@@ -2949,6 +2956,9 @@
       <c r="F58" s="36">
         <v>0.5</v>
       </c>
+      <c r="G58" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
@@ -2961,10 +2971,13 @@
       <c r="F59" s="36">
         <v>0.5</v>
       </c>
+      <c r="G59" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
-      <c r="B60" s="124"/>
+      <c r="B60" s="118"/>
       <c r="C60" s="32" t="s">
         <v>78</v>
       </c>
@@ -2985,6 +2998,9 @@
       <c r="F61" s="36">
         <v>0.1</v>
       </c>
+      <c r="G61" s="36">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="62" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
@@ -2999,6 +3015,9 @@
       <c r="F62" s="36">
         <v>0.4</v>
       </c>
+      <c r="G62" s="36">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="63" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
@@ -3011,6 +3030,9 @@
       <c r="F63" s="36">
         <v>0.2</v>
       </c>
+      <c r="G63" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="64" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
@@ -3025,8 +3047,11 @@
       <c r="F64" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G64" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="76"/>
       <c r="C65" s="32" t="s">
@@ -3037,8 +3062,11 @@
       <c r="F65" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G65" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="76"/>
       <c r="C66" s="32" t="s">
@@ -3049,8 +3077,11 @@
       <c r="F66" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G66" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="76"/>
       <c r="C67" s="39" t="s">
@@ -3061,8 +3092,11 @@
       <c r="F67" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G67" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="76"/>
       <c r="C68" s="32" t="s">
@@ -3075,8 +3109,11 @@
       <c r="F68" s="36">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G68" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32" t="s">
@@ -3088,7 +3125,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32" t="s">
@@ -3100,7 +3137,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32" t="s">
@@ -3112,7 +3149,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="76"/>
       <c r="C72" s="32" t="s">
@@ -3126,7 +3163,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32" t="s">
@@ -3138,7 +3175,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
@@ -3150,7 +3187,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32" t="s">
@@ -3162,7 +3199,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="76"/>
       <c r="C76" s="32" t="s">
@@ -3173,10 +3210,13 @@
       <c r="F76" s="36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G76" s="36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
-      <c r="B77" s="125"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="41" t="s">
         <v>99</v>
       </c>
@@ -3185,8 +3225,11 @@
       <c r="F77" s="42">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G77" s="42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="6" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41" t="s">
@@ -3198,7 +3241,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="6" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A79" s="43">
         <v>2</v>
       </c>
@@ -3213,7 +3256,7 @@
         <v>7.799999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="32"/>
       <c r="C80" s="39" t="s">
@@ -3630,7 +3673,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="32"/>
       <c r="C113" s="39" t="s">
@@ -3642,7 +3685,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="356.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="356.25" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
       <c r="B114" s="32"/>
       <c r="C114" s="39" t="s">
@@ -3656,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
       <c r="B115" s="32"/>
       <c r="C115" s="39" t="s">
@@ -3668,7 +3711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
       <c r="B116" s="32"/>
       <c r="C116" s="39" t="s">
@@ -3680,7 +3723,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
       <c r="B117" s="32"/>
       <c r="C117" s="39" t="s">
@@ -3692,7 +3735,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
       <c r="B118" s="32"/>
       <c r="C118" s="39" t="s">
@@ -3704,7 +3747,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
       <c r="B119" s="32"/>
       <c r="C119" s="39" t="s">
@@ -3716,7 +3759,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
       <c r="B120" s="32"/>
       <c r="C120" s="39" t="s">
@@ -3728,7 +3771,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A121" s="43">
         <v>4</v>
       </c>
@@ -3743,7 +3786,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="46"/>
       <c r="C122" s="48" t="s">
@@ -3754,8 +3797,11 @@
       <c r="F122" s="49">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="G122" s="49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="46"/>
       <c r="C123" s="48" t="s">
@@ -3769,7 +3815,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="46"/>
       <c r="C124" s="48" t="s">
@@ -3780,8 +3826,11 @@
       <c r="F124" s="49">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="G124" s="49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="46"/>
       <c r="C125" s="48" t="s">
@@ -3795,7 +3844,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="46"/>
       <c r="C126" s="48" t="s">
@@ -3806,8 +3855,11 @@
       <c r="F126" s="49">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="G126" s="49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="46"/>
       <c r="C127" s="48" t="s">
@@ -3821,7 +3873,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="46"/>
       <c r="C128" s="48" t="s">
@@ -3835,7 +3887,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="131.25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="131.25" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="46"/>
       <c r="C129" s="48" t="s">
@@ -3848,8 +3900,11 @@
       <c r="F129" s="49">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G129" s="49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="46"/>
       <c r="C130" s="48" t="s">
@@ -3863,7 +3918,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="46"/>
       <c r="C131" s="48" t="s">
@@ -3875,7 +3930,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A132" s="50">
         <v>5</v>
       </c>
@@ -3890,7 +3945,7 @@
         <v>3.3000000000000007</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A133" s="50"/>
       <c r="B133" s="54"/>
       <c r="C133" s="32" t="s">
@@ -3904,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A134" s="50"/>
       <c r="B134" s="98"/>
       <c r="C134" s="32" t="s">
@@ -3916,7 +3971,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A135" s="55"/>
       <c r="B135" s="56"/>
       <c r="C135" s="57" t="s">
@@ -3928,7 +3983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A136" s="55"/>
       <c r="B136" s="56"/>
       <c r="C136" s="57" t="s">
@@ -3942,7 +3997,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="55"/>
       <c r="B137" s="56"/>
       <c r="C137" s="60" t="s">
@@ -3954,7 +4009,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A138" s="55"/>
       <c r="B138" s="56"/>
       <c r="C138" s="60" t="s">
@@ -3968,7 +4023,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="55"/>
       <c r="B139" s="56"/>
       <c r="C139" s="60" t="s">
@@ -3980,7 +4035,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A140" s="55"/>
       <c r="B140" s="56"/>
       <c r="C140" s="60" t="s">
@@ -3992,7 +4047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A141" s="55"/>
       <c r="B141" s="56"/>
       <c r="C141" s="57" t="s">
@@ -4004,7 +4059,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="55"/>
       <c r="B142" s="56"/>
       <c r="C142" s="61" t="s">
@@ -4018,7 +4073,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A143" s="50">
         <v>6</v>
       </c>
@@ -4033,7 +4088,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="55"/>
       <c r="B144" s="56"/>
       <c r="C144" s="60" t="s">
@@ -4262,7 +4317,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A161" s="30"/>
       <c r="B161" s="32"/>
       <c r="C161" s="64" t="s">
@@ -4276,7 +4331,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
       <c r="B162" s="32"/>
       <c r="C162" s="64" t="s">
@@ -4290,7 +4345,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A163" s="30"/>
       <c r="B163" s="32"/>
       <c r="C163" s="67" t="s">
@@ -4304,7 +4359,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
       <c r="B164" s="32"/>
       <c r="C164" s="67" t="s">
@@ -4318,7 +4373,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
       <c r="B165" s="32" t="s">
         <v>355</v>
@@ -4334,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
       <c r="B166" s="32"/>
       <c r="C166" s="67" t="s">
@@ -4346,7 +4401,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="32"/>
       <c r="C167" s="67" t="s">
@@ -4360,7 +4415,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A168" s="30"/>
       <c r="B168" s="32"/>
       <c r="C168" s="67" t="s">
@@ -4374,7 +4429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A169" s="30"/>
       <c r="B169" s="32"/>
       <c r="C169" s="68" t="s">
@@ -4388,7 +4443,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="30">
         <v>8</v>
       </c>
@@ -4403,7 +4458,7 @@
         <v>13.699999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A171" s="30"/>
       <c r="B171" s="71"/>
       <c r="C171" s="38" t="s">
@@ -4416,8 +4471,11 @@
       <c r="F171" s="36">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G171" s="36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A172" s="30"/>
       <c r="B172" s="71"/>
       <c r="C172" s="38" t="s">
@@ -4430,8 +4488,11 @@
       <c r="F172" s="36">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G172" s="36">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A173" s="30"/>
       <c r="B173" s="71"/>
       <c r="C173" s="38" t="s">
@@ -4442,8 +4503,11 @@
       <c r="F173" s="36">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G173" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A174" s="30"/>
       <c r="B174" s="71"/>
       <c r="C174" s="38" t="s">
@@ -4456,8 +4520,11 @@
       <c r="F174" s="36">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G174" s="36">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A175" s="30"/>
       <c r="B175" s="71"/>
       <c r="C175" s="38" t="s">
@@ -4468,8 +4535,11 @@
       <c r="F175" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G175" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A176" s="30"/>
       <c r="B176" s="71"/>
       <c r="C176" s="38" t="s">
@@ -4480,8 +4550,11 @@
       <c r="F176" s="36">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G176" s="36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A177" s="30"/>
       <c r="B177" s="71"/>
       <c r="C177" s="38" t="s">
@@ -4492,8 +4565,11 @@
       <c r="F177" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G177" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A178" s="30"/>
       <c r="B178" s="71"/>
       <c r="C178" s="38" t="s">
@@ -4506,8 +4582,11 @@
       <c r="F178" s="36">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G178" s="36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A179" s="30"/>
       <c r="B179" s="71"/>
       <c r="C179" s="38" t="s">
@@ -4518,8 +4597,11 @@
       <c r="F179" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G179" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A180" s="30"/>
       <c r="B180" s="71"/>
       <c r="C180" s="73"/>
@@ -4528,8 +4610,9 @@
       </c>
       <c r="E180" s="70"/>
       <c r="F180" s="74"/>
-    </row>
-    <row r="181" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G180" s="74"/>
+    </row>
+    <row r="181" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A181" s="30"/>
       <c r="B181" s="71"/>
       <c r="C181" s="73"/>
@@ -4538,8 +4621,9 @@
       </c>
       <c r="E181" s="70"/>
       <c r="F181" s="74"/>
-    </row>
-    <row r="182" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G181" s="74"/>
+    </row>
+    <row r="182" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A182" s="30"/>
       <c r="B182" s="71"/>
       <c r="C182" s="73"/>
@@ -4548,8 +4632,9 @@
       </c>
       <c r="E182" s="70"/>
       <c r="F182" s="74"/>
-    </row>
-    <row r="183" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G182" s="74"/>
+    </row>
+    <row r="183" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A183" s="30"/>
       <c r="B183" s="71"/>
       <c r="C183" s="73"/>
@@ -4558,8 +4643,9 @@
       </c>
       <c r="E183" s="70"/>
       <c r="F183" s="74"/>
-    </row>
-    <row r="184" spans="1:6" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="G183" s="74"/>
+    </row>
+    <row r="184" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A184" s="30"/>
       <c r="B184" s="71"/>
       <c r="C184" s="73" t="s">
@@ -4572,8 +4658,11 @@
       <c r="F184" s="74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G184" s="74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="30">
         <v>9</v>
       </c>
@@ -4585,7 +4674,7 @@
       <c r="E185" s="75"/>
       <c r="F185" s="74"/>
     </row>
-    <row r="186" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="30"/>
       <c r="B186" s="76"/>
       <c r="C186" s="70" t="s">
@@ -4596,8 +4685,11 @@
       <c r="F186" s="74">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G186" s="74">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="30"/>
       <c r="B187" s="76"/>
       <c r="C187" s="70" t="s">
@@ -4608,8 +4700,11 @@
       <c r="F187" s="74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G187" s="74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="30"/>
       <c r="B188" s="76"/>
       <c r="C188" s="70" t="s">
@@ -4620,8 +4715,11 @@
       <c r="F188" s="74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G188" s="74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="30"/>
       <c r="B189" s="76"/>
       <c r="C189" s="70" t="s">
@@ -4632,8 +4730,11 @@
       <c r="F189" s="74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G189" s="74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A190" s="30"/>
       <c r="B190" s="76"/>
       <c r="C190" s="70" t="s">
@@ -4644,8 +4745,11 @@
       <c r="F190" s="74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G190" s="74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A191" s="77">
         <v>10</v>
       </c>
@@ -4657,7 +4761,7 @@
       <c r="E191" s="80"/>
       <c r="F191" s="81"/>
     </row>
-    <row r="192" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A192" s="77"/>
       <c r="B192" s="82"/>
       <c r="C192" s="57" t="s">
@@ -4670,8 +4774,11 @@
       <c r="F192" s="85">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="G192" s="85">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A193" s="77"/>
       <c r="B193" s="82"/>
       <c r="C193" s="57" t="s">
@@ -4686,8 +4793,11 @@
       <c r="F193" s="85">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="93.75" x14ac:dyDescent="0.3">
+      <c r="G193" s="85">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A194" s="86"/>
       <c r="B194" s="87"/>
       <c r="C194" s="60" t="s">
@@ -4700,8 +4810,11 @@
       <c r="F194" s="90">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G194" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A195" s="86"/>
       <c r="B195" s="87"/>
       <c r="C195" s="60" t="s">
@@ -4714,8 +4827,11 @@
       <c r="F195" s="90">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G195" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A196" s="86"/>
       <c r="B196" s="87"/>
       <c r="C196" s="60" t="s">
@@ -4726,8 +4842,11 @@
       <c r="F196" s="90">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G196" s="90">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A197" s="86"/>
       <c r="B197" s="87"/>
       <c r="C197" s="60" t="s">
@@ -4738,8 +4857,11 @@
       <c r="F197" s="90">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G197" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A198" s="86"/>
       <c r="B198" s="87"/>
       <c r="C198" s="60" t="s">
@@ -4752,8 +4874,11 @@
       <c r="F198" s="90">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G198" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A199" s="86"/>
       <c r="B199" s="87"/>
       <c r="C199" s="60" t="s">
@@ -4766,8 +4891,11 @@
       <c r="F199" s="90">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="G199" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A200" s="86"/>
       <c r="B200" s="87"/>
       <c r="C200" s="60" t="s">
@@ -4780,8 +4908,11 @@
       <c r="F200" s="90">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G200" s="90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A201" s="86"/>
       <c r="B201" s="87"/>
       <c r="C201" s="60" t="s">
@@ -4794,8 +4925,11 @@
       <c r="F201" s="90">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="G201" s="90">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A202" s="86"/>
       <c r="B202" s="87"/>
       <c r="C202" s="60" t="s">
@@ -4808,8 +4942,11 @@
       <c r="F202" s="90">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G202" s="90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A203" s="30">
         <v>11</v>
       </c>
@@ -4824,7 +4961,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A204" s="30"/>
       <c r="B204" s="96"/>
       <c r="C204" s="75" t="s">
@@ -4836,7 +4973,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A205" s="30"/>
       <c r="B205" s="30"/>
       <c r="C205" s="75" t="s">
@@ -4848,7 +4985,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="30"/>
       <c r="B206" s="30"/>
       <c r="C206" s="75" t="s">
@@ -4860,7 +4997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A207" s="30"/>
       <c r="B207" s="30"/>
       <c r="C207" s="75" t="s">
@@ -4872,7 +5009,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="30"/>
       <c r="B208" s="30"/>
       <c r="C208" s="75" t="s">
@@ -5022,12 +5159,12 @@
       <c r="A220" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B220" s="120" t="s">
+      <c r="B220" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="C220" s="121"/>
-      <c r="D220" s="121"/>
-      <c r="E220" s="121"/>
+      <c r="C220" s="123"/>
+      <c r="D220" s="123"/>
+      <c r="E220" s="123"/>
       <c r="F220" s="99">
         <f>SUM(F221:F230)</f>
         <v>7</v>
@@ -5199,12 +5336,12 @@
       <c r="A231" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B231" s="120" t="s">
+      <c r="B231" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="C231" s="121"/>
-      <c r="D231" s="121"/>
-      <c r="E231" s="121"/>
+      <c r="C231" s="123"/>
+      <c r="D231" s="123"/>
+      <c r="E231" s="123"/>
       <c r="F231" s="99">
         <f>SUM(F232:F267)</f>
         <v>18.299999999999997</v>
@@ -5538,7 +5675,7 @@
       <c r="E256" s="103"/>
       <c r="F256" s="107"/>
     </row>
-    <row r="257" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="17"/>
       <c r="B257" s="101"/>
       <c r="C257" s="101" t="s">
@@ -5550,7 +5687,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="102"/>
       <c r="C258" s="101"/>
@@ -5560,7 +5697,7 @@
       <c r="E258" s="103"/>
       <c r="F258" s="106"/>
     </row>
-    <row r="259" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="101"/>
       <c r="C259" s="101"/>
@@ -5570,7 +5707,7 @@
       <c r="E259" s="103"/>
       <c r="F259" s="106"/>
     </row>
-    <row r="260" spans="1:6" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A260" s="18"/>
       <c r="B260" s="101"/>
       <c r="C260" s="101"/>
@@ -5580,7 +5717,7 @@
       <c r="E260" s="103"/>
       <c r="F260" s="107"/>
     </row>
-    <row r="261" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A261" s="18"/>
       <c r="B261" s="101"/>
       <c r="C261" s="101"/>
@@ -5590,7 +5727,7 @@
       <c r="E261" s="103"/>
       <c r="F261" s="107"/>
     </row>
-    <row r="262" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A262" s="20">
         <v>6</v>
       </c>
@@ -5605,7 +5742,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
       <c r="B263" s="109"/>
       <c r="C263" s="109" t="s">
@@ -5616,8 +5753,11 @@
       <c r="F263" s="111">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G263" s="111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A264" s="21"/>
       <c r="B264" s="109"/>
       <c r="C264" s="109" t="s">
@@ -5628,8 +5768,11 @@
       <c r="F264" s="111">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G264" s="111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A265" s="21"/>
       <c r="B265" s="109"/>
       <c r="C265" s="109" t="s">
@@ -5640,8 +5783,11 @@
       <c r="F265" s="111">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G265" s="111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A266" s="21"/>
       <c r="B266" s="109"/>
       <c r="C266" s="109" t="s">
@@ -5652,8 +5798,11 @@
       <c r="F266" s="111">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="G266" s="111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A267" s="21"/>
       <c r="B267" s="109"/>
       <c r="C267" s="109" t="s">
@@ -5664,8 +5813,11 @@
       <c r="F267" s="111">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G267" s="111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="15"/>
       <c r="B268" s="54"/>
       <c r="C268" s="112"/>
@@ -5673,7 +5825,7 @@
       <c r="E268" s="67"/>
       <c r="F268" s="114"/>
     </row>
-    <row r="269" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="16"/>
       <c r="B269" s="115"/>
       <c r="C269" s="115"/>
@@ -5685,14 +5837,18 @@
         <f>F231+F220+F55+F6</f>
         <v>61.50000000000005</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="126">
+        <f>SUM(G263:G267)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="12"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="12"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="12"/>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -7503,10 +7659,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="123"/>
+      <c r="B1" s="125"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">

--- a/Критерии.xlsx
+++ b/Критерии.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stasl\OneDrive\Desktop\vending-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC9326B-ACAD-4D8C-80A9-9DB11B3151D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8164A518-6FE7-40ED-8A25-6B0093A81663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1908,6 +1908,7 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1924,7 +1925,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2157,8 +2157,8 @@
   </sheetPr>
   <dimension ref="A1:W865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L155" sqref="L155"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2238,12 +2238,12 @@
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="121" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
       <c r="F6" s="29">
         <f>SUM(F7:F54)</f>
         <v>36.200000000000053</v>
@@ -2294,6 +2294,9 @@
       <c r="F8" s="36">
         <v>1</v>
       </c>
+      <c r="G8" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
@@ -2308,6 +2311,9 @@
       <c r="F9" s="36">
         <v>2</v>
       </c>
+      <c r="G9" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -2322,6 +2328,9 @@
       <c r="F10" s="36">
         <v>1</v>
       </c>
+      <c r="G10" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
@@ -2336,6 +2345,9 @@
       <c r="F11" s="36">
         <v>1</v>
       </c>
+      <c r="G11" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
@@ -2348,6 +2360,9 @@
       </c>
       <c r="E12" s="32"/>
       <c r="F12" s="36">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="36">
         <v>0.25</v>
       </c>
     </row>
@@ -2379,6 +2394,9 @@
       <c r="F14" s="36">
         <v>0.5</v>
       </c>
+      <c r="G14" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
@@ -2391,6 +2409,9 @@
       <c r="F15" s="36">
         <v>0.1</v>
       </c>
+      <c r="G15" s="36">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
@@ -2405,8 +2426,11 @@
       <c r="F16" s="36">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G16" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="32"/>
       <c r="C17" s="35" t="s">
@@ -2419,8 +2443,11 @@
       <c r="F17" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G17" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38" t="s">
@@ -2433,8 +2460,11 @@
       <c r="F18" s="36">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="G18" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="32"/>
       <c r="C19" s="35" t="s">
@@ -2447,8 +2477,11 @@
       <c r="F19" s="36">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G19" s="36">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>3</v>
       </c>
@@ -2463,7 +2496,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="32"/>
       <c r="C21" s="35" t="s">
@@ -2477,7 +2510,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="32"/>
       <c r="C22" s="35" t="s">
@@ -2491,7 +2524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="32"/>
       <c r="C23" s="35" t="s">
@@ -2505,7 +2538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="32"/>
       <c r="C24" s="35" t="s">
@@ -2519,7 +2552,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="32"/>
       <c r="C25" s="32" t="s">
@@ -2533,7 +2566,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>4</v>
       </c>
@@ -2548,7 +2581,7 @@
         <v>5.4000000000000021</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32" t="s">
@@ -2560,7 +2593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="32"/>
       <c r="C28" s="32" t="s">
@@ -2572,7 +2605,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32" t="s">
@@ -2584,7 +2617,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32" t="s">
@@ -2596,7 +2629,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32" t="s">
@@ -2608,7 +2641,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32" t="s">
@@ -2890,12 +2923,12 @@
       <c r="A55" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="122" t="s">
+      <c r="B55" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="29"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -5159,12 +5192,12 @@
       <c r="A220" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B220" s="122" t="s">
+      <c r="B220" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="C220" s="123"/>
-      <c r="D220" s="123"/>
-      <c r="E220" s="123"/>
+      <c r="C220" s="124"/>
+      <c r="D220" s="124"/>
+      <c r="E220" s="124"/>
       <c r="F220" s="99">
         <f>SUM(F221:F230)</f>
         <v>7</v>
@@ -5214,6 +5247,9 @@
       <c r="F222" s="36">
         <v>0.5</v>
       </c>
+      <c r="G222" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="223" spans="1:23" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A223" s="15"/>
@@ -5228,6 +5264,9 @@
       <c r="F223" s="36">
         <v>1</v>
       </c>
+      <c r="G223" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:23" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A224" s="15"/>
@@ -5240,6 +5279,9 @@
       </c>
       <c r="E224" s="32"/>
       <c r="F224" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G224" s="36">
         <v>0.5</v>
       </c>
     </row>
@@ -5273,6 +5315,9 @@
       <c r="F226" s="36">
         <v>0.5</v>
       </c>
+      <c r="G226" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="227" spans="1:23" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A227" s="15"/>
@@ -5287,6 +5332,9 @@
       </c>
       <c r="E227" s="32"/>
       <c r="F227" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G227" s="36">
         <v>0.5</v>
       </c>
     </row>
@@ -5303,6 +5351,9 @@
       <c r="F228" s="36">
         <v>0.5</v>
       </c>
+      <c r="G228" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="229" spans="1:23" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A229" s="15"/>
@@ -5317,6 +5368,9 @@
       <c r="F229" s="36">
         <v>0.5</v>
       </c>
+      <c r="G229" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="230" spans="1:23" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A230" s="15"/>
@@ -5331,17 +5385,20 @@
       <c r="F230" s="36">
         <v>0.5</v>
       </c>
+      <c r="G230" s="36">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="231" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B231" s="122" t="s">
+      <c r="B231" s="123" t="s">
         <v>278</v>
       </c>
-      <c r="C231" s="123"/>
-      <c r="D231" s="123"/>
-      <c r="E231" s="123"/>
+      <c r="C231" s="124"/>
+      <c r="D231" s="124"/>
+      <c r="E231" s="124"/>
       <c r="F231" s="99">
         <f>SUM(F232:F267)</f>
         <v>18.299999999999997</v>
@@ -5837,9 +5894,9 @@
         <f>F231+F220+F55+F6</f>
         <v>61.50000000000005</v>
       </c>
-      <c r="G269" s="126">
-        <f>SUM(G263:G267)</f>
-        <v>2.5</v>
+      <c r="G269" s="120">
+        <f>SUM(G1:G267)</f>
+        <v>37.199999999999989</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -7659,10 +7716,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="125"/>
+      <c r="B1" s="126"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">

--- a/Критерии.xlsx
+++ b/Критерии.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stasl\OneDrive\Desktop\vending-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8164A518-6FE7-40ED-8A25-6B0093A81663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEEA437-6886-47F0-9562-15F2B77B0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2157,8 +2157,8 @@
   </sheetPr>
   <dimension ref="A1:W865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2294,9 +2294,7 @@
       <c r="F8" s="36">
         <v>1</v>
       </c>
-      <c r="G8" s="36">
-        <v>1</v>
-      </c>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
@@ -2311,9 +2309,7 @@
       <c r="F9" s="36">
         <v>2</v>
       </c>
-      <c r="G9" s="36">
-        <v>2</v>
-      </c>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
@@ -2328,9 +2324,7 @@
       <c r="F10" s="36">
         <v>1</v>
       </c>
-      <c r="G10" s="36">
-        <v>1</v>
-      </c>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:23" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
@@ -2345,9 +2339,7 @@
       <c r="F11" s="36">
         <v>1</v>
       </c>
-      <c r="G11" s="36">
-        <v>1</v>
-      </c>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
@@ -2362,9 +2354,7 @@
       <c r="F12" s="36">
         <v>0.25</v>
       </c>
-      <c r="G12" s="36">
-        <v>0.25</v>
-      </c>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
@@ -2394,9 +2384,7 @@
       <c r="F14" s="36">
         <v>0.5</v>
       </c>
-      <c r="G14" s="36">
-        <v>0.5</v>
-      </c>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
@@ -2409,9 +2397,7 @@
       <c r="F15" s="36">
         <v>0.1</v>
       </c>
-      <c r="G15" s="36">
-        <v>0.1</v>
-      </c>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
@@ -2426,9 +2412,7 @@
       <c r="F16" s="36">
         <v>2</v>
       </c>
-      <c r="G16" s="36">
-        <v>2</v>
-      </c>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
@@ -2443,9 +2427,7 @@
       <c r="F17" s="36">
         <v>1</v>
       </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
@@ -2460,9 +2442,7 @@
       <c r="F18" s="36">
         <v>1</v>
       </c>
-      <c r="G18" s="36">
-        <v>1</v>
-      </c>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
@@ -2477,9 +2457,7 @@
       <c r="F19" s="36">
         <v>0.25</v>
       </c>
-      <c r="G19" s="36">
-        <v>0.25</v>
-      </c>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
@@ -3300,8 +3278,11 @@
       <c r="F80" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="G80" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32" t="s">
@@ -3314,8 +3295,11 @@
       <c r="F81" s="36">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G81" s="36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
@@ -3326,8 +3310,11 @@
       <c r="F82" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G82" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
@@ -3340,8 +3327,11 @@
       <c r="F83" s="36">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G83" s="36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
@@ -3355,7 +3345,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
@@ -3368,8 +3358,11 @@
       <c r="F85" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G85" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32" t="s">
@@ -3382,8 +3375,11 @@
       <c r="F86" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G86" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
@@ -3394,8 +3390,11 @@
       <c r="F87" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G87" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
@@ -3408,8 +3407,11 @@
       <c r="F88" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G88" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
@@ -3420,8 +3422,11 @@
       <c r="F89" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G89" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32" t="s">
@@ -3432,8 +3437,11 @@
       <c r="F90" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G90" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32" t="s">
@@ -3446,8 +3454,11 @@
       <c r="F91" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="G91" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32" t="s">
@@ -3458,8 +3469,11 @@
       <c r="F92" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G92" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32" t="s">
@@ -3470,8 +3484,11 @@
       <c r="F93" s="36">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G93" s="36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32" t="s">
@@ -3483,7 +3500,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32" t="s">
@@ -3495,7 +3512,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
       <c r="B96" s="32"/>
       <c r="C96" s="32" t="s">
@@ -3507,7 +3524,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
       <c r="B97" s="32"/>
       <c r="C97" s="32" t="s">
@@ -3519,7 +3536,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
       <c r="B98" s="97"/>
       <c r="C98" s="32" t="s">
@@ -3531,7 +3548,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
       <c r="B99" s="32"/>
       <c r="C99" s="32" t="s">
@@ -3543,7 +3560,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="32"/>
       <c r="C100" s="32" t="s">
@@ -3556,8 +3573,11 @@
       <c r="F100" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G100" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="97"/>
       <c r="C101" s="32" t="s">
@@ -3568,8 +3588,11 @@
       <c r="F101" s="36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G101" s="36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A102" s="30">
         <v>3</v>
       </c>
@@ -3584,7 +3607,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="97"/>
       <c r="C103" s="39" t="s">
@@ -3598,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
       <c r="B104" s="32"/>
       <c r="C104" s="39" t="s">
@@ -3610,7 +3633,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="32"/>
       <c r="C105" s="39" t="s">
@@ -3622,7 +3645,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="32"/>
       <c r="C106" s="39" t="s">
@@ -3634,7 +3657,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="32"/>
       <c r="C107" s="39" t="s">
@@ -3646,7 +3669,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
       <c r="B108" s="32"/>
       <c r="C108" s="39" t="s">
@@ -3658,7 +3681,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
       <c r="B109" s="32"/>
       <c r="C109" s="39" t="s">
@@ -3670,7 +3693,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
       <c r="B110" s="32"/>
       <c r="C110" s="39" t="s">
@@ -3682,7 +3705,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
       <c r="B111" s="32"/>
       <c r="C111" s="39" t="s">
@@ -3694,7 +3717,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
       <c r="B112" s="32"/>
       <c r="C112" s="39" t="s">
@@ -5896,7 +5919,7 @@
       </c>
       <c r="G269" s="120">
         <f>SUM(G1:G267)</f>
-        <v>37.199999999999989</v>
+        <v>32.599999999999994</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">

--- a/Критерии.xlsx
+++ b/Критерии.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stasl\OneDrive\Desktop\vending-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEEA437-6886-47F0-9562-15F2B77B0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB6B770-65CE-46F0-A2EE-BEE8739BECD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2157,8 +2157,8 @@
   </sheetPr>
   <dimension ref="A1:W865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2487,6 +2487,7 @@
       <c r="F21" s="36">
         <v>0.5</v>
       </c>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
@@ -2501,6 +2502,7 @@
       <c r="F22" s="36">
         <v>0.5</v>
       </c>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
@@ -2515,6 +2517,7 @@
       <c r="F23" s="36">
         <v>0.5</v>
       </c>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
@@ -2529,6 +2532,7 @@
       <c r="F24" s="36">
         <v>0.5</v>
       </c>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
@@ -2543,6 +2547,7 @@
       <c r="F25" s="36">
         <v>0.5</v>
       </c>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
@@ -2558,6 +2563,7 @@
         <f>SUM(F27:F53)</f>
         <v>5.4000000000000021</v>
       </c>
+      <c r="G26" s="34"/>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
@@ -2570,6 +2576,9 @@
       <c r="F27" s="36">
         <v>0.2</v>
       </c>
+      <c r="G27" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
@@ -2582,6 +2591,9 @@
       <c r="F28" s="36">
         <v>0.2</v>
       </c>
+      <c r="G28" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -2606,6 +2618,9 @@
       <c r="F30" s="36">
         <v>0.2</v>
       </c>
+      <c r="G30" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
@@ -2618,6 +2633,9 @@
       <c r="F31" s="36">
         <v>0.2</v>
       </c>
+      <c r="G31" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
@@ -2630,8 +2648,11 @@
       <c r="F32" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G32" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32" t="s">
@@ -2642,8 +2663,11 @@
       <c r="F33" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32" t="s">
@@ -2654,8 +2678,11 @@
       <c r="F34" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G34" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32" t="s">
@@ -2667,7 +2694,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32" t="s">
@@ -2678,8 +2705,11 @@
       <c r="F36" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G36" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32" t="s">
@@ -2690,8 +2720,11 @@
       <c r="F37" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G37" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32" t="s">
@@ -2702,8 +2735,11 @@
       <c r="F38" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G38" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32" t="s">
@@ -2714,8 +2750,11 @@
       <c r="F39" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="G39" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32" t="s">
@@ -2726,8 +2765,11 @@
       <c r="F40" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="G40" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32" t="s">
@@ -2738,8 +2780,11 @@
       <c r="F41" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G41" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32" t="s">
@@ -2750,8 +2795,11 @@
       <c r="F42" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G42" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="32"/>
       <c r="C43" s="32" t="s">
@@ -2762,8 +2810,11 @@
       <c r="F43" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="G43" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32" t="s">
@@ -2774,8 +2825,11 @@
       <c r="F44" s="36">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="G44" s="36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32" t="s">
@@ -2787,7 +2841,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="32"/>
       <c r="C46" s="32" t="s">
@@ -2799,7 +2853,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="32"/>
       <c r="C47" s="32" t="s">
@@ -2811,7 +2865,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="32"/>
       <c r="C48" s="32" t="s">
@@ -2846,6 +2900,9 @@
       <c r="F50" s="36">
         <v>0.2</v>
       </c>
+      <c r="G50" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="51" spans="1:23" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
@@ -2858,6 +2915,9 @@
       <c r="F51" s="36">
         <v>0.2</v>
       </c>
+      <c r="G51" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="52" spans="1:23" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
@@ -2870,6 +2930,9 @@
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
       <c r="F52" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="G52" s="36">
         <v>0.2</v>
       </c>
     </row>
@@ -2884,6 +2947,9 @@
       <c r="F53" s="36">
         <v>0.2</v>
       </c>
+      <c r="G53" s="36">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
@@ -2894,6 +2960,9 @@
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
       <c r="F54" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="G54" s="36">
         <v>0.2</v>
       </c>
     </row>
@@ -5919,7 +5988,7 @@
       </c>
       <c r="G269" s="120">
         <f>SUM(G1:G267)</f>
-        <v>32.599999999999994</v>
+        <v>36.799999999999997</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
